--- a/biology/Botanique/Cremaspora/Cremaspora.xlsx
+++ b/biology/Botanique/Cremaspora/Cremaspora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cremaspora est un genre d'arbustes rameux de la famille des Rubiaceae, tribu des canthiées, originaire d'Afrique. Il compte seize espèces aux feuilles composées et fleurs en cymes[1]. C'est l'unique genre de la tribu des Cremasporeae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cremaspora est un genre d'arbustes rameux de la famille des Rubiaceae, tribu des canthiées, originaire d'Afrique. Il compte seize espèces aux feuilles composées et fleurs en cymes. C'est l'unique genre de la tribu des Cremasporeae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cremaspora africana
 Cremaspora bocandeana
@@ -547,7 +561,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pappostyles, Pappostylum, Schizospermum</t>
         </is>
